--- a/src/test/resources/TestExcel/TestPOi.xlsx
+++ b/src/test/resources/TestExcel/TestPOi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkarsulakhe/eclipse-workspace/OrangeHRM_Maven/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkarsulakhe/eclipse-workspace/OrangeHRM_Maven/src/test/resources/TestExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094FB0D0-5C1E-2440-8D13-0FFAB8767B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175A785-E9BD-C342-A750-79B123314294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15720" xr2:uid="{3136E78E-CAEE-0E49-B47F-A4F456527D3B}"/>
   </bookViews>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E893AD0-E338-AB46-985E-F9E4132DCA8E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -475,31 +475,49 @@
     <col min="6" max="6" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -507,91 +525,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
